--- a/data/FOG_frequency_per_walk_table.xlsx
+++ b/data/FOG_frequency_per_walk_table.xlsx
@@ -1,19 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oday/Documents/GitHub/imu-fog-detection/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224CF8E4-187C-D043-9255-5CD6E9A16F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>subjectID</t>
   </si>
@@ -27,8 +45,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -42,7 +60,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -50,137 +68,447 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C61"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="true"/>
-    <col min="2" max="2" width="13.7109375" customWidth="true"/>
-    <col min="3" max="3" width="6" customWidth="true"/>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.034371643394199784</v>
+        <v>3.4371643394199785</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.20664116545942868</v>
+        <v>20.664116545942868</v>
       </c>
       <c r="C3">
         <v>6</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0.11523782928418505</v>
+        <v>11.523782928418505</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
-        <v>0.17164114542780518</v>
+        <v>17.164114542780517</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6">
-        <v>0.40852076124567471</v>
+        <v>40.852076124567475</v>
       </c>
       <c r="C6">
         <v>7</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7">
-        <v>0.10415551988585696</v>
+        <v>10.415551988585696</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8">
-        <v>0.34672686230248306</v>
+        <v>34.672686230248303</v>
       </c>
       <c r="C8">
         <v>8</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9">
-        <v>0.5684367988032909</v>
+        <v>56.843679880329091</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -191,7 +519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -202,18 +530,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12">
-        <v>0.048665500722378525</v>
+        <v>4.8665500722378523</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -224,227 +552,227 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
       <c r="B14">
-        <v>0.25855103689738757</v>
+        <v>25.855103689738755</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
       <c r="B15">
-        <v>0.21209610604805301</v>
+        <v>21.209610604805302</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
       <c r="B16">
-        <v>0.13216313887454828</v>
+        <v>13.216313887454827</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
       <c r="B17">
-        <v>0.13730056058645967</v>
+        <v>13.730056058645967</v>
       </c>
       <c r="C17">
         <v>4</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
       <c r="B18">
-        <v>0.10351799433885968</v>
+        <v>10.351799433885969</v>
       </c>
       <c r="C18">
         <v>3</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
       <c r="B19">
-        <v>0.32368491800340532</v>
+        <v>32.368491800340529</v>
       </c>
       <c r="C19">
         <v>6</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
       <c r="B20">
-        <v>0.18100141328487784</v>
+        <v>18.100141328487783</v>
       </c>
       <c r="C20">
         <v>3</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
       <c r="B21">
-        <v>0.37889149739716238</v>
+        <v>37.889149739716238</v>
       </c>
       <c r="C21">
         <v>8</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
       <c r="B22">
-        <v>0.40709694232105631</v>
+        <v>40.709694232105633</v>
       </c>
       <c r="C22">
         <v>8</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4</v>
       </c>
       <c r="B23">
-        <v>0.49038461538461536</v>
+        <v>49.038461538461533</v>
       </c>
       <c r="C23">
         <v>9</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4</v>
       </c>
       <c r="B24">
-        <v>0.8623188405797102</v>
+        <v>86.231884057971016</v>
       </c>
       <c r="C24">
         <v>9</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4</v>
       </c>
       <c r="B25">
-        <v>0.56927543393662361</v>
+        <v>56.927543393662361</v>
       </c>
       <c r="C25">
         <v>10</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4</v>
       </c>
       <c r="B26">
-        <v>0.24775133781168165</v>
+        <v>24.775133781168165</v>
       </c>
       <c r="C26">
         <v>5</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4</v>
       </c>
       <c r="B27">
-        <v>0.5602788408966648</v>
+        <v>56.027884089666479</v>
       </c>
       <c r="C27">
         <v>9</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4</v>
       </c>
       <c r="B28">
-        <v>0.49258398139982362</v>
+        <v>49.258398139982361</v>
       </c>
       <c r="C28">
         <v>6</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>5</v>
       </c>
       <c r="B29">
-        <v>0.22053756030323915</v>
+        <v>22.053756030323914</v>
       </c>
       <c r="C29">
         <v>4</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>5</v>
       </c>
       <c r="B30">
-        <v>0.17208155948913287</v>
+        <v>17.208155948913287</v>
       </c>
       <c r="C30">
         <v>4</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>5</v>
       </c>
       <c r="B31">
-        <v>0.27843380981976384</v>
+        <v>27.843380981976384</v>
       </c>
       <c r="C31">
         <v>4</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>5</v>
       </c>
       <c r="B32">
-        <v>0.17896316225165562</v>
+        <v>17.896316225165563</v>
       </c>
       <c r="C32">
         <v>5</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>5</v>
       </c>
       <c r="B33">
-        <v>0.037911048024603738</v>
+        <v>3.791104802460374</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>5</v>
       </c>
@@ -455,7 +783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>5</v>
       </c>
@@ -466,7 +794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>5</v>
       </c>
@@ -477,7 +805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>5</v>
       </c>
@@ -488,51 +816,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>6</v>
       </c>
       <c r="B38">
-        <v>0.2026690793938023</v>
+        <v>20.266907939380228</v>
       </c>
       <c r="C38">
         <v>6</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>6</v>
       </c>
       <c r="B39">
-        <v>0.074581209031318277</v>
+        <v>7.4581209031318281</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>6</v>
       </c>
       <c r="B40">
-        <v>0.031716648155004322</v>
+        <v>3.1716648155004323</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>6</v>
       </c>
       <c r="B41">
-        <v>0.040261437908496733</v>
+        <v>4.0261437908496731</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>6</v>
       </c>
@@ -543,7 +871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>6</v>
       </c>
@@ -554,7 +882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>6</v>
       </c>
@@ -565,7 +893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>6</v>
       </c>
@@ -576,7 +904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>6</v>
       </c>
@@ -587,62 +915,62 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>6</v>
       </c>
       <c r="B47">
-        <v>0.094849944423860688</v>
+        <v>9.4849944423860695</v>
       </c>
       <c r="C47">
         <v>2</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>6</v>
       </c>
       <c r="B48">
-        <v>0.1207709933953363</v>
+        <v>12.07709933953363</v>
       </c>
       <c r="C48">
         <v>3</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>6</v>
       </c>
       <c r="B49">
-        <v>0.055822067160924554</v>
+        <v>5.5822067160924558</v>
       </c>
       <c r="C49">
         <v>2</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>6</v>
       </c>
       <c r="B50">
-        <v>0.053009387078961898</v>
+        <v>5.30093870789619</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>6</v>
       </c>
       <c r="B51">
-        <v>0.072449412763548895</v>
+        <v>7.2449412763548899</v>
       </c>
       <c r="C51">
         <v>2</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>7</v>
       </c>
@@ -653,40 +981,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>7</v>
       </c>
       <c r="B53">
-        <v>0.37961286728867843</v>
+        <v>37.96128672886784</v>
       </c>
       <c r="C53">
         <v>4</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>7</v>
       </c>
       <c r="B54">
-        <v>0.20732618988288065</v>
+        <v>20.732618988288067</v>
       </c>
       <c r="C54">
         <v>5</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>7</v>
       </c>
       <c r="B55">
-        <v>0.40523027077065493</v>
+        <v>40.523027077065493</v>
       </c>
       <c r="C55">
         <v>6</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>7</v>
       </c>
@@ -697,61 +1025,62 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>7</v>
       </c>
       <c r="B57">
-        <v>0.57141407993507809</v>
+        <v>57.141407993507812</v>
       </c>
       <c r="C57">
         <v>7</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>7</v>
       </c>
       <c r="B58">
-        <v>0.45360824742268041</v>
+        <v>45.360824742268044</v>
       </c>
       <c r="C58">
         <v>8</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>7</v>
       </c>
       <c r="B59">
-        <v>0.44166666666666665</v>
+        <v>44.166666666666664</v>
       </c>
       <c r="C59">
         <v>10</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>7</v>
       </c>
       <c r="B60">
-        <v>0.24049578168940736</v>
+        <v>24.049578168940737</v>
       </c>
       <c r="C60">
         <v>5</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>7</v>
       </c>
       <c r="B61">
-        <v>0.12939397757339044</v>
+        <v>12.939397757339044</v>
       </c>
       <c r="C61">
         <v>3</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>